--- a/TCP_IP.xlsx
+++ b/TCP_IP.xlsx
@@ -4,36 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="405" windowWidth="27795" windowHeight="12285"/>
+    <workbookView xWindow="600" yWindow="405" windowWidth="27795" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="__cdecl（呼び出し規約）" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="ひな形" sheetId="6" r:id="rId1"/>
+    <sheet name="__cdecl（呼び出し規約）" sheetId="4" r:id="rId2"/>
+    <sheet name="getaddrInfo（）" sheetId="5" r:id="rId3"/>
+    <sheet name="コマンドライン引数" sheetId="7" r:id="rId4"/>
+    <sheet name="トリガー" sheetId="8" r:id="rId5"/>
+    <sheet name="双方向" sheetId="9" r:id="rId6"/>
+    <sheet name="フローチャート図" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>__stdcallよりも大きな実行可能ファイルが作成されるってどういう意味？</t>
-    <rPh sb="12" eb="13">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>ジッコウカノウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>呼び出し元でクリーンアップってどういう意味？</t>
     <rPh sb="0" eb="1">
@@ -145,6 +133,654 @@
     <rPh sb="8" eb="9">
       <t>ナニ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>__cdeclって何？</t>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何がわからないか</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int __cdecl main(int argc, char **argv)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わからないコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調べたこと</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何をする関数？</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANSIって何？</t>
+    <rPh sb="6" eb="7">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANSI文字コードのこと。</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getaddrinfo(NULL, DEFAULT_PORT, &amp;hints, &amp;result);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構文は確認した？</t>
+    <rPh sb="0" eb="2">
+      <t>コウブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCSTRって何？</t>
+    <rPh sb="7" eb="8">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一引数はなに？</t>
+    <rPh sb="0" eb="2">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチバイト文字列って何？</t>
+    <rPh sb="6" eb="9">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANSIで書かれたホスト名です。
+NULL文字で終わります。
+インターネットプロトコルの場合、数値のホストアドレス文字列はドット付き10進IPv4アドレスまたはIPv616進アドレスです。</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二引数はなに？</t>
+    <rPh sb="0" eb="2">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列として表されるサービス名またはポート番号のいずれかを含む、NULLで終了するANSI文字列へのポインタです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列としてあらわされるサービス名って何？</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポート番号の文字列エイリアスです。たとえば、httpはポート80のエイリアスです。</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エイリアスの意味はわかる？</t>
+    <rPh sb="6" eb="8">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偽名、通称、別名という意味です。ポート番号の文字列としての別名という意味です。</t>
+    <rPh sb="0" eb="2">
+      <t>ギメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベツメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ベツメイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第３引数は何？</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼び出し元がサポートするソケットのタイプに関するヒントを提供するaddrinfo構造体へのポインターです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第４引数は何？</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INT WSAAPI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006881"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>getaddrinfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF171717"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">( 
+ PCSTR pNodeName, 
+ PCSTR pServiceName, 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF171717"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> ADDRINFOA *pHints, 
+ PADDRINFOA *ppResult 
+);</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Windows で用いられる文字型、および文字列型です。
+ NULL で終わる変更できない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マルチバイト文字列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>へのポインタです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値は何？</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功は０を返します。</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピュータで文字を扱えるよう各文字に番号を対応付ける文字コードや文字セットのうち、一文字を2バイト以上のデータ量で表すものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第３引数を具体的に言うと？</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「IPv4形式のアドレスのみ欲しい」という風に、取得したいアドレスや通信方法を絞りたい場合がある。
+その時には、第3引数const struct addrinfo *hintsを使って指定する事で、自分が欲しいアドレスの種類を取得できる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホストに関する応答情報を含む1つ以上のaddrinfo構造のリンクリストへのポインター。
+IPアドレスなどを調べた結果が格納されている。</t>
+    <rPh sb="55" eb="56">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getaddrinfo(
+ NULL, 
+ DEFAULT_PORT, 
+ &amp;hints, 
+ &amp;result
+);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addrInfoの中に入っているsockaddrは何なの？</t>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調べた結果をもとに検証、また疑問</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続するために必要なネットワーク層レベルの通信プロトコルとアドレスとポートの情報を格納した構造体のこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1引数がNULLの場合はどうなるの？</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> getaddrinfo関数の nodename パラメーターが NULL ポインターである場合、ソケットアドレス構造の IP アドレス部分は IPv4 アドレスの場合は inaddr _ ANY 、IPv6 アドレスの場合は IN6ADDR _ _ に設定されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inaddr_anyって何？</t>
+    <rPh sb="12" eb="13">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のポートに常駐するが、どのローカルアドレスが選択されてもかまわない
+→localhostでも、www.example.comでも構わない。</t>
+    <rPh sb="67" eb="68">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゃあsockaddrの中に、アドレスとポート番号が入っている。ので見れるはず。</t>
+    <rPh sb="12" eb="13">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でも中身が「読み取れない文字列です」って出てきて読めない。</t>
+    <rPh sb="2" eb="4">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ipアドレスがどこで取得出来ているのかわからない。</t>
+    <rPh sb="10" eb="14">
+      <t>シュトクデキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost入れても、argvにはtcp_cliantが入る理由がわからない。</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ANSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホスト名からアドレスへの変換を提供する。
+プロトコルに依存しない。
+与えられた引数から、IP アドレス(やポー ト番号)を調べ、結果を構造体 struct addrinfo（1のコードの引数でいうとresult）に格納して返す。その構造体 は、ヒープ（malloc() されたメモリ）に置かれている。</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼び出し規約をつけないとどうなるの？
+実際困るというか、意味はあるの？</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「関数の引数の引き渡し方、引数利用後の処理の仕方を制御します。」
+関数の呼び出し元では、第１引数はレジスタに記憶する、第２引数はスタックに積むという約束事をつくる。
+このようなルールを作れば、違う言語における引数の引き渡しが可能になります。</t>
+    <rPh sb="34" eb="36">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ヤクソクゴト</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジスタとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU内の記憶装置。メモリと同じで、いろいろなデータを記憶させる。
+メモリとの違い
+・加工結果も記憶する。
+・メモリに比べて、レジスタの記憶領域は小さい。COMET IIの場合、メ モリーのアドレス数は65536個あるに対して、レジスタは20～30個程度
+・メモリは番地を指定して目的のデータにアクセスする。一方、レジス タは名前を指定して、目的のデータにアクセスする。
+・CPUのデータのアクセススピードは、レジスタの方 がはるかに早い(C言語ではレジスタを使ったプログラムができる)。</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キオクソウチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わからないコード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -156,10 +792,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="BIZ UDPゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>呼び出し規約</t>
     </r>
@@ -167,10 +802,9 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>です。
 スタックは</t>
@@ -179,10 +813,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="BIZ UDPゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>呼び出し元によってクリーンアップ</t>
     </r>
@@ -190,10 +823,9 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>されるため、関数を実行できます。 
 　</t>
@@ -202,10 +834,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="BIZ UDPゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>__cdecl 呼び出し規則により、 __stdcallよりも大きな実行可能ファイルが作成されます</t>
     </r>
@@ -213,52 +844,969 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>」</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>__cdeclって何？</t>
-    <rPh sb="9" eb="10">
+    <t>いままでmain関数に引数を渡したことはなかったから、それで呼び出し規約も使ってこなかったのかな。</t>
+    <rPh sb="8" eb="10">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各規約はそれぞれ、「クラスを扱えるようにする規約」とか、「この規約を使えば、引数を優先するためレジスタに積むので処理が高速になる」とか、特徴がある。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報元</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://konuma.org/blog/2006/01/02/post_1fd3/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.yamamo10.jp/yamamoto/lecture/2004/3E/6th/html/node2.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不要なデータを削除する、綺麗にする。</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cdeclはＣＰＵのレジスタの数が少ないころに作られた規約で、引数をスタックメインで処理するため一般に低速です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cdcelの特徴</t>
+    <rPh sb="6" eb="8">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりたいこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドライン引数で、「localhost」を渡したい</t>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドライン引数には、どのように値を渡すか。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考記事</t>
+    <rPh sb="0" eb="4">
+      <t>サンコウキジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int main(int argc, char *argv[]);
+の、argcとargvには、それぞれ何が入るか。</t>
+    <rPh sb="52" eb="53">
       <t>ナニ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>何がわからないか</t>
+    <rPh sb="54" eb="55">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>argc
+後続の引数の数を含む整数。 
+パラメーターには、常に1以上の argc 値を指定します。
+argv
+ プログラムのユーザーが入力したコマンドライン引数を表す、null で終了する文字列配列。
+ 慣例により、 argv[0] はプログラムの呼び出しに使用されるコマンドです。 
+ argv[1] は、最初のコマンドライン引数です。 
+ コマンドラインからの最後の引数は argv[argc - 1] であり、 argv[argc] は常に NULL です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visual studio で環境作っているけど、これでコマンドライン引数渡すやり方が合ってるのかな。</t>
+    <rPh sb="15" eb="17">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターミナルでファイル名と引数を入力する。</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　””で囲ってないからかな？</t>
+    <rPh sb="4" eb="5">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検証結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://programming-place.net/ppp/contents/visualstudio/commandline_arg.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>""で囲ったら、うまくいった。
+あと、
+std::cout &lt;&lt; argv[1];
+こういうふうにして、ログを出せば、中に何が入っているかわかった。
+ウォッチだけだと、配列[1]の要素まで見れなかった。</t>
+    <rPh sb="3" eb="4">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考記事</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検証</t>
+    <rPh sb="0" eb="2">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソケット通信をハードウェアで制御する。
+（キーボードで「１」と入力したら、クライアントが動き、メッセージを送信する」など）</t>
+    <rPh sb="4" eb="6">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わからないこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何で検索したらいいんだろう
+「ハードウェア制御」
+「トリガー」
+など</t>
     <rPh sb="0" eb="1">
       <t>ナニ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int __cdecl main(int argc, char **argv)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>わからないコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結果</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://jp.mathworks.com/help/matlab/tcpip-communication.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考となる記事の検討
+・TCP/IP通信でのコールバックの使用
+「指定したイベントが発生したときにコールバック関数を実行することにより、TCP/IP 通信を強化する。」
+今度は、
+コールバック関数
+TCP通信
+で調べてみよう</t>
     <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調べたこと</t>
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>コンド</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コールバック関数
+TCP通信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCPで双方向通信
+サーバとクライアントで、それぞれメッセージを送受信できる</t>
+    <rPh sb="4" eb="7">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ソウジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今の実装との違いは？</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調べたこと・考えたこと</t>
     <rPh sb="0" eb="1">
       <t>シラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今はクライアントからのみメッセージを送信している。
+これをサーバ側からもメッセージを送信するようにしたい。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今の実装のままだとできないのかな？</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度、サーバ側からメッセージを送信するにはこうすればいいのでは？
+という方法を試してみる。</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TCP通信サーバ側のコードを見る。
+ListenSocketってなに？
+</t>
+    <rPh sb="3" eb="5">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントからの接続待機用ソケット</t>
+    <rPh sb="9" eb="13">
+      <t>セツゾクタイキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>socket（）関数は、どのように動くの？</t>
+    <rPh sb="8" eb="10">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">特定のトランスポート・サービス・プロバイダにバインドされているソケットを作成します。
+ソケットは「SOCKET」という変数を使って表されます。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全ての通信は、socket()が返すSOCKET変数を使って行われます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> socket()は、失敗するとINVALID_SOCKETを返します。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ListenSocketにはSOCKET変数が入っているはず。これはどんな値なのかな？</t>
+    <rPh sb="20" eb="22">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned int
+248(値は毎回変わる)</t>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>マイカイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバはIPアドレス、ポート番号を持っているが、作成したソケットは名前がない状態で作成される。
+ソケットには、サーバのIPアドレスを関連付けしないといけない。
+そうしないと、遠隔プロセスはソケットを参照できない。</t>
+    <rPh sb="14" eb="16">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>カンレンヅ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>エンカク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバがクライアント接続を受け入れるには、そのサーバをシステム内のネットワークアドレスにバインドする必要があります
+なぜ？
+システム内のネットワークアドレス、というのがわからない。
+ネットワークアドレスはIPアドレスのことで合ってる。
+192.0.0.1とか。</t>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセスってなんですか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムの実行単位。
+通常、実行コードとデータはともにメモリー上にあり、CPUによって逐次取り出されて実行される。CPUから見れば、プロセスはコードとデータの実行単位だが、OSから見たプロセスはメモリーの管理単位となる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://kotobank.jp/word/%E3%83%97%E3%83%AD%E3%82%BB%E3%82%B9-8500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/cd/E19455-01/806-2730/6jbu725kj/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>listen関数とは？</t>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">接続を待機している状態でソケットを配置します。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>listen関数の第二引数は？</t>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留中の接続のキューの最大長
+SOMAXCONNに設定した場合、
+最大妥当な値にバックログを設定します。</t>
+    <rPh sb="0" eb="3">
+      <t>ホリュウチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ダトウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留中の接続のキューとは？</t>
+    <rPh sb="0" eb="3">
+      <t>ホリュウチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理中のTCPソケットが待ち行列になっている。</t>
+    <rPh sb="0" eb="3">
+      <t>ショリチュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギョウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/ja-jp/windows/win32/api/winsock2/nf-winsock2-listen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>send（）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信したバイト数の整数値を返す</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セイスウチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recv()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信したバイト数の整数値を返す
+bufパラメーターが指すバッファーには受信したこのデータが含まれます</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セイスウチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recv()の引数recvbufの中には何が入っている？</t>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージが確認できた。
+でも”～～ﾌﾌﾌﾌﾌ...”という表記になっている。</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーからメッセージ送信できたけど、クライアントで受信しようとしたら途中まででみ切れた。</t>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全部メッセージ受信しきる前に切れている。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントから、１を押したらメッセージが送信される。
+サーバ側ではどういう動きをすると思う？</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ側では待機中で、メッセージが来たら受信します。受信メッセージをサーバ側で出力します。
+また、次のメッセージがくるまで待機に戻ります。
+何かをきっかけに、待機中の状態を解除します。</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>タイキチュウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>では、サーバ側にはどのような動きを実装しないといけないと思う？</t>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信と、出力はできている。
+なので追加で必要なのは、
+・次のメッセージがくるまで待機に戻る
+・何かをきっかけに、待機中の状態を解除する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>タイキチュウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">条件分岐すればいいのかな
+・指定した時間待機してもこなかったら、接続切る
+・指定したメッセージがきたら、接続きる。
+</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウケンブンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セツゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -267,7 +1815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,11 +1833,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171717"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006881"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0101FD"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,26 +1892,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -358,13 +1961,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="0"/>
-          <a:ext cx="0" cy="7048500"/>
+          <a:off x="7848600" y="0"/>
+          <a:ext cx="0" cy="12287250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent4">
               <a:lumMod val="60000"/>
@@ -410,13 +2013,553 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="0"/>
-          <a:ext cx="0" cy="7010400"/>
+          <a:off x="4181475" y="0"/>
+          <a:ext cx="0" cy="12249150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="0"/>
+          <a:ext cx="0" cy="12287250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="0"/>
+          <a:ext cx="0" cy="12249150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="0"/>
+          <a:ext cx="0" cy="12830175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="0"/>
+          <a:ext cx="0" cy="12792075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="0"/>
+          <a:ext cx="0" cy="12830175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="0"/>
+          <a:ext cx="0" cy="12792075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11172825" y="0"/>
+          <a:ext cx="0" cy="12115800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="0"/>
+          <a:ext cx="0" cy="12334875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="0"/>
+          <a:ext cx="0" cy="12296775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11172825" y="0"/>
+          <a:ext cx="0" cy="12334875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent4">
               <a:lumMod val="60000"/>
@@ -732,87 +2875,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.125" customWidth="1"/>
-    <col min="5" max="5" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:5" ht="63.75" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25" customHeight="1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="126" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <f>ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="126" customHeight="1">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="72.75" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="64.5" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="64.5" customHeight="1">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="64.5" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="64.5" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
   </sheetData>
@@ -825,33 +2956,830 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="48.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="108">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="72.75" customHeight="1">
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B10" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="64.5" customHeight="1">
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="64.5" customHeight="1">
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="64.5" customHeight="1">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="108">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="189">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.5">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="34" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="81">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="103.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="73.5" customHeight="1">
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B15" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="81">
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5">
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="81">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="67.5">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.5">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="27">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="35.25" customHeight="1">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="106.5" customHeight="1">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="54">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="63.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="171" customHeight="1">
+      <c r="B3" s="2">
+        <f>ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="108">
+      <c r="B4" s="2">
+        <f>ROW()-1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="63.75" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="81" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="135">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="54.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="63.75" customHeight="1">
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="81" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.5">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B4" s="8"/>
+      <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B5" s="8"/>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="94.5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64.5" customHeight="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="162">
+      <c r="C8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="67.5">
+      <c r="C9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27">
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="54">
+      <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="54">
+      <c r="C14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40.5">
+      <c r="C15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="40.5">
+      <c r="C16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="44.25" customHeight="1"/>
+    <row r="18" spans="3:4" ht="67.5">
+      <c r="C18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="67.5">
+      <c r="C19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="81">
+      <c r="C20" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
